--- a/HOMA_NV_Metrics/reports/Chart/Severitychart0.xlsx
+++ b/HOMA_NV_Metrics/reports/Chart/Severitychart0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="221">
   <si>
     <t>Keyword</t>
   </si>
